--- a/attribution sujets.xlsx
+++ b/attribution sujets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charbons.GIPSA-LAB\Documents\sylvie\ENSEIGNE\projets IESE\sujet 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\OneDrive\Documents\Projet IESE4 - Allocation de ressources\AllocationDeRessource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BC90540-A490-4C72-9B03-9B33CC8A4CBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3E300C-CB78-4665-85E9-1873CDB21B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="38">
   <si>
     <t>N° projet</t>
   </si>
@@ -491,14 +491,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -585,15 +587,11 @@
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="I2" s="4"/>
       <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
         <v>2</v>
@@ -620,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -682,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -744,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -804,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -866,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -928,7 +926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -990,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1110,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1168,7 +1166,7 @@
       </c>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1228,7 +1226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1290,7 +1288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1352,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1414,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1538,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1600,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1662,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -1754,7 +1752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -1816,7 +1814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -1938,7 +1936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -2000,7 +1998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -2062,7 +2060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -2124,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -2180,7 +2178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2242,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -2304,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -2364,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2424,7 +2422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -2546,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -2608,7 +2606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -2670,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
